--- a/RUDN/Importance/Varible_muatal_reg_in_Southern Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Southern Africa.xlsx
@@ -31,12 +31,12 @@
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
@@ -70,18 +70,21 @@
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
@@ -106,39 +106,39 @@
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
-    <t>Urban population growth (annual %)</t>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
@@ -154,36 +154,36 @@
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
@@ -211,42 +211,42 @@
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
-    <t>Population ages 25-29, male (% of male population)</t>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
@@ -268,6 +268,9 @@
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
@@ -277,60 +280,57 @@
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
@@ -355,24 +355,27 @@
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
   </si>
   <si>
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
@@ -388,18 +391,18 @@
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
@@ -412,15 +415,12 @@
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
@@ -451,21 +451,21 @@
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -508,15 +508,15 @@
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
     <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -529,6 +529,9 @@
     <t>Male population 60-64</t>
   </si>
   <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -538,42 +541,39 @@
     <t>Urban population</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Male population 55-59</t>
   </si>
   <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
     <t>Female population 30-34</t>
   </si>
   <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
@@ -619,15 +619,21 @@
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Population, total</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+    <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
     <t>Female population 70-74</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Population, female</t>
   </si>
   <si>
@@ -640,7 +646,7 @@
     <t>Female population 75-79</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
+    <t>Country_code</t>
   </si>
   <si>
     <t>Net ODA received per capita (current US$)</t>
@@ -670,21 +676,15 @@
     <t>Female population 80+</t>
   </si>
   <si>
-    <t>Country_code</t>
+    <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>Female population 45-49</t>
   </si>
   <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
     <t>Male population 80+</t>
   </si>
   <si>
@@ -709,6 +709,9 @@
     <t>Male population 70-74</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>Male population 20-24</t>
   </si>
   <si>
@@ -733,21 +736,18 @@
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
     <t>Male population 65-69</t>
   </si>
   <si>
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
@@ -781,6 +781,9 @@
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
@@ -790,9 +793,6 @@
     <t>Female population 05-09</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
     <t>Population ages 0-14, female</t>
   </si>
   <si>
@@ -811,30 +811,30 @@
     <t>Male population 05-09</t>
   </si>
   <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
   </si>
   <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
@@ -880,12 +880,18 @@
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
@@ -922,9 +928,6 @@
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
@@ -934,9 +937,6 @@
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
@@ -970,6 +970,9 @@
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
@@ -979,9 +982,6 @@
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
@@ -1084,40 +1084,43 @@
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
@@ -1129,109 +1132,106 @@
     <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
     <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
   </si>
   <si>
     <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
   </si>
   <si>
     <t>Rural population</t>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.590214238490642</v>
+        <v>1.595342443618847</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1669,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.136511082077317</v>
+        <v>1.137793133359368</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1677,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.136511082077317</v>
+        <v>1.137793133359368</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9072889819117491</v>
+        <v>0.9066956863184537</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1741,7 +1741,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8502922517228306</v>
+        <v>0.8491694856000649</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1749,7 +1749,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8300412739356817</v>
+        <v>0.8245941720179912</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1773,7 +1773,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7808409241730128</v>
+        <v>0.7854496849094708</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1781,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7775817833932548</v>
+        <v>0.7811650444971332</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1789,7 +1789,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7769973039570899</v>
+        <v>0.7773070581185295</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1797,7 +1797,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7717784402344359</v>
+        <v>0.7742439234691498</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1805,7 +1805,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.715546854040229</v>
+        <v>0.7233055809268665</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1813,7 +1813,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7028488837992666</v>
+        <v>0.715546854040229</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1821,7 +1821,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7013412959439931</v>
+        <v>0.7047719607223435</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6945572779477946</v>
+        <v>0.7013412959439931</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.6854548903988444</v>
+        <v>0.6864805314244853</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1869,7 +1869,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.6571986470329536</v>
+        <v>0.6536665998417015</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6536665998417015</v>
+        <v>0.6533524931867998</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6519258620596196</v>
+        <v>0.6510375579794827</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6510375579794827</v>
+        <v>0.648106948694291</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.6442607948481371</v>
+        <v>0.6288252068533371</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1909,7 +1909,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6325733104853573</v>
+        <v>0.6280463102388918</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.6288252068533371</v>
+        <v>0.6191987882939687</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1925,7 +1925,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6191987882939687</v>
+        <v>0.6172848412986878</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1933,7 +1933,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.6157463797602256</v>
+        <v>0.6122852124876701</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.610822934720936</v>
+        <v>0.6117181123903399</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6081643333667905</v>
+        <v>0.610822934720936</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5977625436842229</v>
+        <v>0.5925865704052713</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5933191711378725</v>
+        <v>0.5922003281220078</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5853788198339664</v>
+        <v>0.5857610563656488</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5821589319942935</v>
+        <v>0.5853788198339664</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5775260498797388</v>
+        <v>0.5762521554555811</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5762521554555811</v>
+        <v>0.576024039965374</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5713461755991815</v>
+        <v>0.5757636945879714</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5648745836988605</v>
+        <v>0.5713461755991815</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2093,7 +2093,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5557610548741367</v>
+        <v>0.5599312436597108</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2149,7 +2149,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5296932509066603</v>
+        <v>0.5293801398585622</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5293801398585622</v>
+        <v>0.5257380884220866</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5286826446014685</v>
+        <v>0.5252638632109687</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5252638632109687</v>
+        <v>0.5174499092192977</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5174499092192977</v>
+        <v>0.516457647376471</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5079789306825941</v>
+        <v>0.5071283898686305</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5071283898686305</v>
+        <v>0.5059651051442473</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5059651051442473</v>
+        <v>0.5040697920717414</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5040697920717414</v>
+        <v>0.500402505097119</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5009683450709281</v>
+        <v>0.4986381047860249</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.4931893868373067</v>
+        <v>0.4958401399427226</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.47168436649102</v>
+        <v>0.473407545500018</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.4706063047242335</v>
+        <v>0.47168436649102</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.4677447336934288</v>
+        <v>0.4706063047242335</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.4673635894560615</v>
+        <v>0.4677447336934288</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.4642798937311055</v>
+        <v>0.4619711063524625</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.4640118721731343</v>
+        <v>0.4614910346679006</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.463663106774066</v>
+        <v>0.4613525433037551</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4619711063524625</v>
+        <v>0.4611943086039103</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4614910346679006</v>
+        <v>0.4608651659968088</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.4585373271689699</v>
+        <v>0.4605848504768821</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.4548624247178283</v>
+        <v>0.4517392951241099</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4423181189433578</v>
+        <v>0.4396419465619661</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.4404516631611561</v>
+        <v>0.4393332735594377</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.4393332735594377</v>
+        <v>0.4356037286244812</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.4356037286244812</v>
+        <v>0.4320617086869476</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.4267697387468394</v>
+        <v>0.4270882504602134</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.4264728658448282</v>
+        <v>0.4267697387468394</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.4216327229355046</v>
+        <v>0.419727256606961</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.3749820387469933</v>
+        <v>0.3762869472710864</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.3734922909470186</v>
+        <v>0.3749820387469933</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.371565862844061</v>
+        <v>0.3736784845568928</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.370966677313634</v>
+        <v>0.3719923183392748</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.3672040427102088</v>
+        <v>0.3680860093642071</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.3649852639911524</v>
+        <v>0.3672040427102088</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.3638330986624876</v>
+        <v>0.3649852639911524</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.3591522169578623</v>
+        <v>0.3628796699401802</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.3543655163450947</v>
+        <v>0.3561959575310145</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.3490105656093663</v>
+        <v>0.3543655163450947</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.3456276138557137</v>
+        <v>0.3470893157013073</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.3442475194417813</v>
+        <v>0.3456276138557137</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.3419611105731022</v>
+        <v>0.3442475194417813</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.3414686872816555</v>
+        <v>0.3437887057997426</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.3399370043756833</v>
+        <v>0.3414686872816555</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.3395765094068697</v>
+        <v>0.3399370043756833</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.3334137687932541</v>
+        <v>0.3395765094068697</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.3325340933636629</v>
+        <v>0.3334137687932541</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.3284343296881844</v>
+        <v>0.3275873041037798</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.3275873041037798</v>
+        <v>0.3270426740537102</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.3230582663962434</v>
+        <v>0.3238274971654733</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.30481744123525</v>
+        <v>0.3056271578344401</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.3033379602469681</v>
+        <v>0.2994918064008143</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.3018402842248098</v>
+        <v>0.2934629357668155</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.2864315967199587</v>
+        <v>0.2867333041372988</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.2861635035674985</v>
+        <v>0.2864315967199587</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.2785682942579824</v>
+        <v>0.2769035151342094</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.2774484874033201</v>
+        <v>0.2767427871182013</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.2364051770266398</v>
+        <v>0.2370069346030808</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.2350241540771931</v>
+        <v>0.2364051770266398</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.2350122668831247</v>
+        <v>0.2350241540771931</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.2305255623428464</v>
+        <v>0.2299950583640664</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.221993573259426</v>
+        <v>0.2247083306060769</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.2213307856799105</v>
+        <v>0.2235320347978877</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.2170362687171574</v>
+        <v>0.2213307856799105</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.2155640237605314</v>
+        <v>0.2170362687171574</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.2098659386106063</v>
+        <v>0.2122648650815404</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.2087004807479254</v>
+        <v>0.2098659386106063</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.2084278115203055</v>
+        <v>0.2090967078413759</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.2064869406026624</v>
+        <v>0.2068921510265715</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.2052382734527112</v>
+        <v>0.2064188844397121</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.204856086322549</v>
+        <v>0.2052382734527112</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.2035473128538647</v>
+        <v>0.204856086322549</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.2022183622201557</v>
+        <v>0.2042891384048597</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.2020587638140825</v>
+        <v>0.2035473128538647</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.2007380130829599</v>
+        <v>0.2022183622201557</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1864489567725451</v>
+        <v>0.1866011123093161</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.1683165837244824</v>
+        <v>0.1684239604043156</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1677829347632904</v>
+        <v>0.1683165837244824</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3253,7 +3253,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.1635412929942994</v>
+        <v>0.1663145661478618</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.1628754167043689</v>
+        <v>0.1635412929942994</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.1627745637731848</v>
+        <v>0.163052628959151</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.161457582271459</v>
+        <v>0.1628754167043689</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.160703431217821</v>
+        <v>0.1627745637731848</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.1600419112029092</v>
+        <v>0.161457582271459</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.1550063111957014</v>
+        <v>0.160703431217821</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.1546730522606261</v>
+        <v>0.1581925155425683</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.1510805981083416</v>
+        <v>0.1550063111957014</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.1486291501553427</v>
+        <v>0.1546730522606261</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.1485740953434158</v>
+        <v>0.1510805981083416</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.1473427788156374</v>
+        <v>0.1486291501553427</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.1469064229202179</v>
+        <v>0.1485740953434158</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.1460856013352634</v>
+        <v>0.1473427788156374</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.1447305213572778</v>
+        <v>0.1469064229202179</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.1445303340707893</v>
+        <v>0.1460856013352634</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.1438743288124931</v>
+        <v>0.1447305213572778</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.1434070955601054</v>
+        <v>0.1446053987192071</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.1424721865593497</v>
+        <v>0.1438743288124931</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.1418163966406165</v>
+        <v>0.1410561464590996</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.123336797908802</v>
+        <v>0.1253534636506792</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.1210486568473086</v>
+        <v>0.123336797908802</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1204757738779532</v>
+        <v>0.1210486568473086</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1202411212942083</v>
+        <v>0.1204757738779532</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3509,7 +3509,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.1196816747891938</v>
+        <v>0.1202411212942083</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3517,7 +3517,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.1192002931461793</v>
+        <v>0.1196816747891938</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.1179054442926455</v>
+        <v>0.1192002931461793</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.1176057428998958</v>
+        <v>0.1179054442926455</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.117436107942626</v>
+        <v>0.1176057428998958</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3653,7 +3653,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.09906489155474252</v>
+        <v>0.0988363193154369</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.0943717482037707</v>
+        <v>0.09684329524549029</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.09407776767449638</v>
+        <v>0.0943717482037707</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.09179507536119513</v>
+        <v>0.09407776767449638</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3693,7 +3693,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.09127488231888337</v>
+        <v>0.09179507536119513</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.08721821715901457</v>
+        <v>0.08694798702839046</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.08694798702839046</v>
+        <v>0.08432861853313756</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.08432861853313756</v>
+        <v>0.0839318498253927</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.0839318498253927</v>
+        <v>0.08290376626049922</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.083740937470131</v>
+        <v>0.08196758057674947</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.08196758057674947</v>
+        <v>0.08187523358785054</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.08187523358785054</v>
+        <v>0.08138368687758568</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.07068787231388018</v>
+        <v>0.07084695530602625</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3941,7 +3941,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.07065535115571797</v>
+        <v>0.07068787231388018</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3949,7 +3949,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.07052542769619863</v>
+        <v>0.07065535115571797</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3957,7 +3957,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.07030390960992694</v>
+        <v>0.07058646823599846</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3965,7 +3965,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.07007144451046687</v>
+        <v>0.07052542769619863</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3973,7 +3973,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.06987025389019963</v>
+        <v>0.07030390960992694</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3981,7 +3981,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.06978971521230615</v>
+        <v>0.07007144451046687</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.06940463235488137</v>
+        <v>0.06987025389019963</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.06858935139849209</v>
+        <v>0.06978971521230615</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.06833510231952467</v>
+        <v>0.06940463235488137</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4013,7 +4013,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.06826711820674869</v>
+        <v>0.06858935139849209</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4021,7 +4021,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.06813025421528152</v>
+        <v>0.06833510231952467</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4029,7 +4029,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.06811053570854919</v>
+        <v>0.06826711820674869</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4037,7 +4037,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.06783948617620195</v>
+        <v>0.06813025421528152</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4045,7 +4045,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.06771293389991317</v>
+        <v>0.06811053570854919</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4053,7 +4053,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.06692252446499469</v>
+        <v>0.06783948617620195</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.06684116688652009</v>
+        <v>0.06692252446499469</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4069,7 +4069,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.06650846163067725</v>
+        <v>0.06684116688652009</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4077,7 +4077,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.06637268823113951</v>
+        <v>0.06650846163067725</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4125,7 +4125,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.06221853645030895</v>
+        <v>0.06228205124068542</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4645,7 +4645,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.04662864515160847</v>
+        <v>0.0435360619518681</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4653,7 +4653,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.0435360619518681</v>
+        <v>0.04065101202160637</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.04065101202160637</v>
+        <v>0.03517696523373082</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.03517696523373082</v>
+        <v>0.03420275083306534</v>
       </c>
     </row>
     <row r="408" spans="1:2">
